--- a/IPL/Kolkata Knight Riders/Venkatesh Iyer.xlsx
+++ b/IPL/Kolkata Knight Riders/Venkatesh Iyer.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,28 +445,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C2" t="str">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D2" t="str">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" t="str">
-        <v>71.42</v>
+        <v>203.92</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>March 30 2022</v>
+        <v>April 16 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,28 +480,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C3" t="str">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D3" t="str">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="str">
-        <v>46.15</v>
+        <v>135.71</v>
       </c>
       <c r="H3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>Eden Gardens</v>
       </c>
       <c r="J3" t="str">
-        <v>April 15 2022</v>
+        <v>May 11 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,28 +515,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C4" t="str">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="str">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>116.66</v>
+        <v>78.57</v>
       </c>
       <c r="H4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I4" t="str">
-        <v>Pune</v>
+        <v>Eden Gardens</v>
       </c>
       <c r="J4" t="str">
-        <v>May 14 2022</v>
+        <v>April 29 2023</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -541,28 +550,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C5" t="str">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D5" t="str">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>50.00</v>
+        <v>119.23</v>
       </c>
       <c r="H5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J5" t="str">
-        <v>April 28 2022</v>
+        <v>April 26 2023</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -573,28 +585,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C6" t="str">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D6" t="str">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E6" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>179.16</v>
+        <v>175.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Mumbai Indians</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Hyderabad</v>
       </c>
       <c r="J6" t="str">
-        <v>May 09 2022</v>
+        <v>May 04 2023</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -605,31 +620,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C7" t="str">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" t="str">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>71.42</v>
+        <v>42.85</v>
       </c>
       <c r="H7" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Eden Gardens</v>
       </c>
       <c r="J7" t="str">
-        <v>March 30 2022</v>
+        <v>April 06 2023</v>
       </c>
       <c r="K7" t="str">
-        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -640,141 +655,36 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C8" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>116.66</v>
+        <v>0.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I8" t="str">
-        <v>Pune</v>
+        <v>Delhi</v>
       </c>
       <c r="J8" t="str">
-        <v>May 14 2022</v>
+        <v>April 20 2023</v>
       </c>
       <c r="K8" t="str">
-        <v>KKR won by 54 runs</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Kolkata Knight Riders</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Venkatesh Iyer</v>
-      </c>
-      <c r="C9" t="str">
-        <v>6</v>
-      </c>
-      <c r="D9" t="str">
-        <v>12</v>
-      </c>
-      <c r="E9" t="str">
-        <v>0</v>
-      </c>
-      <c r="F9" t="str">
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
-        <v>50.00</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Wankhede</v>
-      </c>
-      <c r="J9" t="str">
-        <v>April 28 2022</v>
-      </c>
-      <c r="K9" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Kolkata Knight Riders</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Venkatesh Iyer</v>
-      </c>
-      <c r="C10" t="str">
-        <v>6</v>
-      </c>
-      <c r="D10" t="str">
-        <v>13</v>
-      </c>
-      <c r="E10" t="str">
-        <v>1</v>
-      </c>
-      <c r="F10" t="str">
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
-        <v>46.15</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Sunrisers Hyderabad</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Brabourne</v>
-      </c>
-      <c r="J10" t="str">
-        <v>April 15 2022</v>
-      </c>
-      <c r="K10" t="str">
-        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Kolkata Knight Riders</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Venkatesh Iyer</v>
-      </c>
-      <c r="C11" t="str">
-        <v>43</v>
-      </c>
-      <c r="D11" t="str">
-        <v>24</v>
-      </c>
-      <c r="E11" t="str">
-        <v>3</v>
-      </c>
-      <c r="F11" t="str">
-        <v>4</v>
-      </c>
-      <c r="G11" t="str">
-        <v>179.16</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Mumbai Indians</v>
-      </c>
-      <c r="I11" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J11" t="str">
-        <v>May 09 2022</v>
-      </c>
-      <c r="K11" t="str">
-        <v>KKR won by 52 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>